--- a/ArticleManage/main_working_folder/output_folders/Data 83 Highly mesoporous activated carbon/Data83_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 83 Highly mesoporous activated carbon/Data83_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PEACF-30" sheetId="1" r:id="rId1"/>
-    <sheet name="PEACF-40" sheetId="2" r:id="rId4"/>
-    <sheet name="PEACF-50" sheetId="3" r:id="rId5"/>
-    <sheet name="PEACF-60" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 5 PEACF-30  0-1-0-1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 PEACF-40  0-1-0-1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5 PEACF-50  0-1-0-1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5 PEACF-60  0-1-0-1000 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PEACF-30</a:t>
+              <a:t>Izoterma adsorpcji probki PEACF-30 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PEACF-30'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 PEACF-30  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PEACF-30'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 PEACF-30  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PEACF-40</a:t>
+              <a:t>Izoterma adsorpcji probki PEACF-40 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PEACF-40'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 PEACF-40  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PEACF-40'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 PEACF-40  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PEACF-50</a:t>
+              <a:t>Izoterma adsorpcji probki PEACF-50 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PEACF-50'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 PEACF-50  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PEACF-50'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 PEACF-50  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PEACF-60</a:t>
+              <a:t>Izoterma adsorpcji probki PEACF-60 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'PEACF-60'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 PEACF-60  0-1-0-1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'PEACF-60'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 PEACF-60  0-1-0-1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 83 Highly mesoporous activated carbon/Data83_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 83 Highly mesoporous activated carbon/Data83_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,405 +4034,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9958</v>
       </c>
       <c r="B3" s="0">
-        <v>259.9674</v>
+        <v>363.0837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9764</v>
       </c>
       <c r="B4" s="0">
-        <v>268.3818</v>
+        <v>357.6593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9581</v>
       </c>
       <c r="B5" s="0">
-        <v>272.1024</v>
+        <v>354.9356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.9467</v>
       </c>
       <c r="B6" s="0">
-        <v>274.3842</v>
+        <v>353.5706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.9101</v>
       </c>
       <c r="B7" s="0">
-        <v>276.8639</v>
+        <v>346.7736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.8987</v>
       </c>
       <c r="B8" s="0">
-        <v>279.5352</v>
+        <v>345.4087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.8518</v>
       </c>
       <c r="B9" s="0">
-        <v>281.8463</v>
+        <v>338.5978</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.8027</v>
       </c>
       <c r="B10" s="0">
-        <v>285.7147</v>
+        <v>333.1333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.7535</v>
       </c>
       <c r="B11" s="0">
-        <v>287.1958</v>
+        <v>329.0184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.7021</v>
       </c>
       <c r="B12" s="0">
-        <v>288.1656</v>
+        <v>323.5509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.6529</v>
       </c>
       <c r="B13" s="0">
-        <v>292.2211</v>
+        <v>318.0865</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.6049</v>
       </c>
       <c r="B14" s="0">
-        <v>291.3437</v>
+        <v>313.9731</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.5535</v>
       </c>
       <c r="B15" s="0">
-        <v>290.3446</v>
+        <v>311.2046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.5055</v>
       </c>
       <c r="B16" s="0">
-        <v>292.8138</v>
+        <v>308.4408</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.4552</v>
       </c>
       <c r="B17" s="0">
-        <v>293.6112</v>
+        <v>302.9748</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.4061</v>
       </c>
       <c r="B18" s="0">
-        <v>294.8968</v>
+        <v>298.8599</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.3546</v>
       </c>
       <c r="B19" s="0">
-        <v>296.2475</v>
+        <v>297.441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.3055</v>
       </c>
       <c r="B20" s="0">
-        <v>296.2405</v>
+        <v>293.3261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.2552</v>
       </c>
       <c r="B21" s="0">
-        <v>297.8592</v>
+        <v>290.5592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.2038</v>
       </c>
       <c r="B22" s="0">
-        <v>299.6121</v>
+        <v>286.4412</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.1523</v>
       </c>
       <c r="B23" s="0">
-        <v>298.5239</v>
+        <v>280.9736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.1043</v>
       </c>
       <c r="B24" s="0">
-        <v>299.9639</v>
+        <v>276.8603</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.0746</v>
       </c>
       <c r="B25" s="0">
-        <v>304.1495</v>
+        <v>272.7716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.0643</v>
       </c>
       <c r="B26" s="0">
-        <v>306.907</v>
+        <v>268.7091</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.0426</v>
       </c>
       <c r="B27" s="0">
-        <v>307.6948</v>
+        <v>264.6312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.0312</v>
       </c>
       <c r="B28" s="0">
-        <v>308.7852</v>
+        <v>259.2177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.0209</v>
       </c>
       <c r="B29" s="0">
-        <v>311.4341</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>316.1602</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>315.7025</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>316.3282</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>319.9278</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>319.574</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>320.6238</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>322.5927</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>324.7695</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>327.2277</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>327.9474</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>329.6011</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>331.8399</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>334.9967</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>338.043</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>340.4738</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>343.2917</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>345.7663</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>349.1232</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>350.4668</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>353.0378</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>360.8721</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9993</v>
-      </c>
-      <c r="B51" s="0">
-        <v>363.0883</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0231</v>
-      </c>
-      <c r="B52" s="0">
-        <v>252.4592</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>251.1066</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4441,7 +4257,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4462,413 +4278,205 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.04</v>
+        <v>0.9959</v>
       </c>
       <c r="B3" s="0">
-        <v>293.5901</v>
+        <v>414.3658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.9765</v>
       </c>
       <c r="B4" s="0">
-        <v>305.4314</v>
+        <v>411.6405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.9605</v>
       </c>
       <c r="B5" s="0">
-        <v>310.9223</v>
+        <v>407.5703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.9479</v>
       </c>
       <c r="B6" s="0">
-        <v>314.5254</v>
+        <v>406.2038</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.9045</v>
       </c>
       <c r="B7" s="0">
-        <v>318.0185</v>
+        <v>398.048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.8553</v>
       </c>
       <c r="B8" s="0">
-        <v>321.8441</v>
+        <v>393.9331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.8027</v>
       </c>
       <c r="B9" s="0">
-        <v>323.8472</v>
+        <v>388.4641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.7524</v>
       </c>
       <c r="B10" s="0">
-        <v>325.7383</v>
+        <v>384.3476</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.7033</v>
       </c>
       <c r="B11" s="0">
-        <v>328.4116</v>
+        <v>380.2327</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.6519</v>
       </c>
       <c r="B12" s="0">
-        <v>330.6384</v>
+        <v>374.7652</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.6027</v>
       </c>
       <c r="B13" s="0">
-        <v>332.5414</v>
+        <v>369.3007</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5547</v>
       </c>
       <c r="B14" s="0">
-        <v>334.4069</v>
+        <v>363.8378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.5044</v>
       </c>
       <c r="B15" s="0">
-        <v>336.5995</v>
+        <v>358.3719</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.4553</v>
       </c>
       <c r="B16" s="0">
-        <v>338.6899</v>
+        <v>352.9074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.3558</v>
       </c>
       <c r="B17" s="0">
-        <v>339.488</v>
+        <v>344.6761</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.3044</v>
       </c>
       <c r="B18" s="0">
-        <v>339.5685</v>
+        <v>339.2085</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.2541</v>
       </c>
       <c r="B19" s="0">
-        <v>342.1191</v>
+        <v>333.7426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.2027</v>
       </c>
       <c r="B20" s="0">
-        <v>344.1947</v>
+        <v>329.6246</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.1501</v>
       </c>
       <c r="B21" s="0">
-        <v>346.6027</v>
+        <v>321.4564</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.1066</v>
       </c>
       <c r="B22" s="0">
-        <v>350.1041</v>
+        <v>315.9997</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.0735</v>
       </c>
       <c r="B23" s="0">
-        <v>350.7095</v>
+        <v>309.2073</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.0621</v>
       </c>
       <c r="B24" s="0">
-        <v>352.2345</v>
+        <v>305.1433</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.0426</v>
       </c>
       <c r="B25" s="0">
-        <v>355.7688</v>
+        <v>298.3695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="B26" s="0">
-        <v>357.7131</v>
+        <v>290.2553</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.022</v>
       </c>
       <c r="B27" s="0">
-        <v>358.9133</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B28" s="0">
-        <v>360.9374</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B29" s="0">
-        <v>362.9218</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B30" s="0">
-        <v>365.004</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B31" s="0">
-        <v>367.0732</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B32" s="0">
-        <v>369.6905</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B33" s="0">
-        <v>372.9324</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B34" s="0">
-        <v>374.8803</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B35" s="0">
-        <v>377.1258</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B36" s="0">
-        <v>377.8841</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B37" s="0">
-        <v>379.3516</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B38" s="0">
-        <v>382.3284</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B39" s="0">
-        <v>384.0056</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B40" s="0">
-        <v>385.9234</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B41" s="0">
-        <v>387.0888</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B42" s="0">
-        <v>389.653</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B43" s="0">
-        <v>392.0889</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B44" s="0">
-        <v>393.3863</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B45" s="0">
-        <v>395.5112</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B46" s="0">
-        <v>398.1864</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B47" s="0">
-        <v>401.4966</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B48" s="0">
-        <v>401.4422</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B49" s="0">
-        <v>403.0268</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B50" s="0">
-        <v>412.1472</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.997</v>
-      </c>
-      <c r="B51" s="0">
-        <v>415.7169</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0255</v>
-      </c>
-      <c r="B52" s="0">
-        <v>286.2006</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.014</v>
-      </c>
-      <c r="B53" s="0">
-        <v>264.5927</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>280.7978</v>
+      </c>
+    </row>
+    <row r="28"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4877,7 +4485,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4898,317 +4506,277 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0155</v>
+        <v>0.996</v>
       </c>
       <c r="B3" s="0">
-        <v>288.2474</v>
+        <v>533.1244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.027</v>
+        <v>0.9732</v>
       </c>
       <c r="B4" s="0">
-        <v>325.7616</v>
+        <v>524.9964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0439</v>
+        <v>0.9583</v>
       </c>
       <c r="B5" s="0">
-        <v>356.6029</v>
+        <v>519.5782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0721</v>
+        <v>0.9446</v>
       </c>
       <c r="B6" s="0">
-        <v>375.912</v>
+        <v>516.8606</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1003</v>
+        <v>0.9091</v>
       </c>
       <c r="B7" s="0">
-        <v>390.296</v>
+        <v>507.3661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1284</v>
+        <v>0.8954</v>
       </c>
       <c r="B8" s="0">
-        <v>395.1842</v>
+        <v>504.6486</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1566</v>
+        <v>0.8509</v>
       </c>
       <c r="B9" s="0">
-        <v>402.1112</v>
+        <v>497.8408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1848</v>
+        <v>0.812</v>
       </c>
       <c r="B10" s="0">
-        <v>407.3946</v>
+        <v>491.0407</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.213</v>
+        <v>0.7983</v>
       </c>
       <c r="B11" s="0">
-        <v>411.8706</v>
+        <v>489.6726</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2411</v>
+        <v>0.7594</v>
       </c>
       <c r="B12" s="0">
-        <v>416.6761</v>
+        <v>482.8725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2693</v>
+        <v>0.7468</v>
       </c>
       <c r="B13" s="0">
-        <v>417.6532</v>
+        <v>481.506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2975</v>
+        <v>0.7011</v>
       </c>
       <c r="B14" s="0">
-        <v>423.131</v>
+        <v>473.3472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3257</v>
+        <v>0.6622</v>
       </c>
       <c r="B15" s="0">
-        <v>425.299</v>
+        <v>469.2461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3538</v>
+        <v>0.6508</v>
       </c>
       <c r="B16" s="0">
-        <v>432.9598</v>
+        <v>466.5317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.382</v>
+        <v>0.6017</v>
       </c>
       <c r="B17" s="0">
-        <v>433.9507</v>
+        <v>459.7177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4098</v>
+        <v>0.5617</v>
       </c>
       <c r="B18" s="0">
-        <v>437.254</v>
+        <v>454.2656</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4383</v>
+        <v>0.5502</v>
       </c>
       <c r="B19" s="0">
-        <v>438.0265</v>
+        <v>452.9006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4947</v>
+        <v>0.4999</v>
       </c>
       <c r="B20" s="0">
-        <v>445.2771</v>
+        <v>447.4347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5223</v>
+        <v>0.4508</v>
       </c>
       <c r="B21" s="0">
-        <v>447.0501</v>
+        <v>439.2712</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.551</v>
+        <v>0.3525</v>
       </c>
       <c r="B22" s="0">
-        <v>452.1097</v>
+        <v>429.6918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5798</v>
+        <v>0.3011</v>
       </c>
       <c r="B23" s="0">
-        <v>453.1446</v>
+        <v>425.5738</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6989</v>
+        <v>0.3011</v>
       </c>
       <c r="B24" s="0">
-        <v>471.4312</v>
+        <v>425.5738</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8108</v>
+        <v>0.253</v>
       </c>
       <c r="B25" s="0">
-        <v>490.4799</v>
+        <v>417.4119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9261</v>
+        <v>0.2108</v>
       </c>
       <c r="B26" s="0">
-        <v>512.8583</v>
+        <v>411.9567</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9543</v>
+        <v>0.1605</v>
       </c>
       <c r="B27" s="0">
-        <v>515.9815</v>
+        <v>402.4421</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9825</v>
+        <v>0.1433</v>
       </c>
       <c r="B28" s="0">
-        <v>527.983</v>
+        <v>401.0694</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1.0027</v>
+        <v>0.0896</v>
       </c>
       <c r="B29" s="0">
-        <v>531.5643</v>
+        <v>387.5017</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4725</v>
+        <v>0.0736</v>
       </c>
       <c r="B30" s="0">
-        <v>441.9995</v>
+        <v>379.3829</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6017</v>
+        <v>0.0644</v>
       </c>
       <c r="B31" s="0">
-        <v>458.3682</v>
+        <v>373.9724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6497</v>
+        <v>0.0541</v>
       </c>
       <c r="B32" s="0">
-        <v>465.1806</v>
+        <v>365.8614</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6634</v>
+        <v>0.0415</v>
       </c>
       <c r="B33" s="0">
-        <v>467.8982</v>
+        <v>356.3977</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7263</v>
+        <v>0.0324</v>
       </c>
       <c r="B34" s="0">
-        <v>477.4297</v>
+        <v>348.2882</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7468</v>
+        <v>0.0267</v>
       </c>
       <c r="B35" s="0">
-        <v>480.1565</v>
+        <v>334.7852</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7628</v>
+        <v>0.0198</v>
       </c>
       <c r="B36" s="0">
-        <v>481.5276</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7971</v>
-      </c>
-      <c r="B37" s="0">
-        <v>489.6711</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8486</v>
-      </c>
-      <c r="B38" s="0">
-        <v>497.8377</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B39" s="0">
-        <v>503.2944</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.908</v>
-      </c>
-      <c r="B40" s="0">
-        <v>506.015</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0335</v>
-      </c>
-      <c r="B41" s="0">
-        <v>345.5907</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>323.9797</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5217,7 +4785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5238,381 +4806,397 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0011</v>
+        <v>0.9976</v>
       </c>
       <c r="B3" s="0">
-        <v>248.9221</v>
+        <v>863.7607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0006</v>
+        <v>0.977</v>
       </c>
       <c r="B4" s="0">
-        <v>202.4613</v>
+        <v>844.8396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0005</v>
+        <v>0.9575</v>
       </c>
       <c r="B5" s="0">
-        <v>169.2759</v>
+        <v>825.9199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.001</v>
+        <v>0.9358</v>
       </c>
       <c r="B6" s="0">
-        <v>130.3055</v>
+        <v>812.3953</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0002</v>
+        <v>0.9049</v>
       </c>
       <c r="B7" s="0">
-        <v>94.6243</v>
+        <v>790.7612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0004</v>
+        <v>0.8935</v>
       </c>
       <c r="B8" s="0">
-        <v>67.0212</v>
+        <v>783.9981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0013</v>
+        <v>0.8546</v>
       </c>
       <c r="B9" s="0">
-        <v>29.2058</v>
+        <v>765.0523</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0022</v>
+        <v>0.8077</v>
       </c>
       <c r="B10" s="0">
-        <v>297.2337</v>
+        <v>746.0956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0009</v>
+        <v>0.7597</v>
       </c>
       <c r="B11" s="0">
-        <v>8.0985</v>
+        <v>728.487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0069</v>
+        <v>0.7105</v>
       </c>
       <c r="B12" s="0">
-        <v>335.1341</v>
+        <v>712.2263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0165</v>
+        <v>0.6602</v>
       </c>
       <c r="B13" s="0">
-        <v>369.8515</v>
+        <v>695.9641</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0322</v>
+        <v>0.6031</v>
       </c>
       <c r="B14" s="0">
-        <v>405.4311</v>
+        <v>678.3431</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0525</v>
+        <v>0.555</v>
       </c>
       <c r="B15" s="0">
-        <v>435.5722</v>
+        <v>666.1325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0767</v>
+        <v>0.5047</v>
       </c>
       <c r="B16" s="0">
-        <v>467.3886</v>
+        <v>653.9189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1036</v>
+        <v>0.4556</v>
       </c>
       <c r="B17" s="0">
-        <v>494.3807</v>
+        <v>639.0077</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1321</v>
+        <v>0.355</v>
       </c>
       <c r="B18" s="0">
-        <v>522.5773</v>
+        <v>613.2309</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1603</v>
+        <v>0.3058</v>
       </c>
       <c r="B19" s="0">
-        <v>538.6054</v>
+        <v>599.6693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1885</v>
+        <v>0.259</v>
       </c>
       <c r="B20" s="0">
-        <v>557.955</v>
+        <v>586.1108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2167</v>
+        <v>0.1377</v>
       </c>
       <c r="B21" s="0">
-        <v>568.602</v>
+        <v>526.568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.2448</v>
+        <v>0.1034</v>
       </c>
       <c r="B22" s="0">
-        <v>580.8439</v>
+        <v>496.8321</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.273</v>
+        <v>0.0851</v>
       </c>
       <c r="B23" s="0">
-        <v>590.6035</v>
+        <v>477.914</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3012</v>
+        <v>0.0714</v>
       </c>
       <c r="B24" s="0">
-        <v>597.517</v>
+        <v>467.0992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3294</v>
+        <v>0.0645</v>
       </c>
       <c r="B25" s="0">
-        <v>607.5493</v>
+        <v>457.6433</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3576</v>
+        <v>0.0588</v>
       </c>
       <c r="B26" s="0">
-        <v>613.3455</v>
+        <v>446.8393</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3857</v>
+        <v>0.0508</v>
       </c>
       <c r="B27" s="0">
-        <v>622.0396</v>
+        <v>436.0323</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.4139</v>
+        <v>0.0439</v>
       </c>
       <c r="B28" s="0">
-        <v>629.3833</v>
+        <v>425.2268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4429</v>
+        <v>0.037</v>
       </c>
       <c r="B29" s="0">
-        <v>635.8003</v>
+        <v>414.4213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4703</v>
+        <v>0.0302</v>
       </c>
       <c r="B30" s="0">
-        <v>645.2402</v>
+        <v>404.9653</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4985</v>
+        <v>0.0267</v>
       </c>
       <c r="B31" s="0">
-        <v>652.269</v>
+        <v>396.8635</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5266</v>
+        <v>0.0222</v>
       </c>
       <c r="B32" s="0">
-        <v>658.7582</v>
+        <v>384.7116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5548</v>
+        <v>0.0153</v>
       </c>
       <c r="B33" s="0">
-        <v>666.9084</v>
+        <v>367.1585</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.583</v>
+        <v>0.0084</v>
       </c>
       <c r="B34" s="0">
-        <v>675.0825</v>
+        <v>350.9549</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6112</v>
+        <v>0.0049</v>
       </c>
       <c r="B35" s="0">
-        <v>681.3656</v>
+        <v>330.7073</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6393</v>
+        <v>0.0038</v>
       </c>
       <c r="B36" s="0">
-        <v>694.3714</v>
+        <v>310.4628</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6675</v>
+        <v>0.0026</v>
       </c>
       <c r="B37" s="0">
-        <v>698.968</v>
+        <v>290.2183</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6957</v>
+        <v>0.0014</v>
       </c>
       <c r="B38" s="0">
-        <v>708.907</v>
+        <v>267.2748</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7239</v>
+        <v>0.0014</v>
       </c>
       <c r="B39" s="0">
-        <v>716.1303</v>
+        <v>244.3327</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7521</v>
+        <v>0.0014</v>
       </c>
       <c r="B40" s="0">
-        <v>726.7276</v>
+        <v>221.3907</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.7802</v>
+        <v>0.0002</v>
       </c>
       <c r="B41" s="0">
-        <v>736.1512</v>
+        <v>199.7967</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8084</v>
+        <v>0.0002</v>
       </c>
       <c r="B42" s="0">
-        <v>746.6879</v>
+        <v>179.5538</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8366</v>
+        <v>0.0002</v>
       </c>
       <c r="B43" s="0">
-        <v>758.5759</v>
+        <v>157.9613</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8648</v>
+        <v>0.0013</v>
       </c>
       <c r="B44" s="0">
-        <v>768.359</v>
+        <v>137.7199</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.893</v>
+        <v>0.0001</v>
       </c>
       <c r="B45" s="0">
-        <v>782.2999</v>
+        <v>118.8249</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9212</v>
+        <v>0.0001</v>
       </c>
       <c r="B46" s="0">
-        <v>800.6731</v>
+        <v>98.582</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9493</v>
+        <v>0.0001</v>
       </c>
       <c r="B47" s="0">
-        <v>819.4722</v>
+        <v>76.9895</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9749</v>
+        <v>0.0001</v>
       </c>
       <c r="B48" s="0">
-        <v>841.6604</v>
+        <v>59.4456</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.9978</v>
+        <v>0</v>
       </c>
       <c r="B49" s="0">
-        <v>863.3926</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>43.2513</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.0012</v>
+      </c>
+      <c r="B50" s="0">
+        <v>25.7089</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.0012</v>
+      </c>
+      <c r="B51" s="0">
+        <v>9.5146</v>
+      </c>
+    </row>
+    <row r="52"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 83 Highly mesoporous activated carbon/Data83_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 83 Highly mesoporous activated carbon/Data83_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5 PEACF-30  0-1-0-1000 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 5 PEACF-40  0-1-0-1000 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 5 PEACF-50  0-1-0-1000 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 5 PEACF-60  0-1-0-1000 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 5 PEACF-30  0&amp;1&amp;0&amp;1000 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 PEACF-40  0&amp;1&amp;0&amp;1000 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5 PEACF-50  0&amp;1&amp;0&amp;1000 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5 PEACF-60  0&amp;1&amp;0&amp;1000 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-30  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PEACF-30  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-30  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PEACF-30  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-40  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PEACF-40  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-40  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PEACF-40  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-50  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PEACF-50  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-50  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PEACF-50  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-60  0-1-0-1000 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PEACF-60  0&amp;1&amp;0&amp;1000 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PEACF-60  0-1-0-1000 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PEACF-60  0&amp;1&amp;0&amp;1000 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
